--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\UF_Work\CompDesign\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\UF_Work\CompDesign\Project\Code\GatorBall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2F305A7-F722-4D0E-B079-FF2F868B9F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F57E984-7841-4848-A31E-B126C24E376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{15C62A7B-E50B-44CD-A99E-500E8CE9BA39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Time Tracker</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>Today we had our first meeting where we discussed the project and started working on the design draft.</t>
+  </si>
+  <si>
+    <t>1 Hour</t>
+  </si>
+  <si>
+    <t>Myself</t>
+  </si>
+  <si>
+    <t>Worked on Design Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was working on the draft schmatic for the design draft so I spent my time researching how all our hardware was communicating and then I created a first draft of the draft schmatic and put it in the document </t>
   </si>
 </sst>
 </file>
@@ -449,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23512295-C012-4880-8873-8251211C1C86}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,6 +515,56 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="B3" s="3">
+        <v>45567</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\UF_Work\CompDesign\Project\Code\GatorBall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F57E984-7841-4848-A31E-B126C24E376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D76628-A8DB-4506-B255-A2A6E4D29314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{15C62A7B-E50B-44CD-A99E-500E8CE9BA39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Time Tracker</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t xml:space="preserve">I was working on the draft schmatic for the design draft so I spent my time researching how all our hardware was communicating and then I created a first draft of the draft schmatic and put it in the document </t>
+  </si>
+  <si>
+    <t>Tyler, Augustus, Josh</t>
+  </si>
+  <si>
+    <t>We made changes to our design and switched which type of microcontroller would be sending and receiving data from the football</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +478,7 @@
     <col min="1" max="1" width="17.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.81640625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1"/>
@@ -532,8 +538,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F4" s="4"/>
+    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>45568</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F5" s="4"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\UF_Work\CompDesign\Project\Code\GatorBall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D76628-A8DB-4506-B255-A2A6E4D29314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5953E1-0DE3-4C4C-8A54-E57862DDD3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{15C62A7B-E50B-44CD-A99E-500E8CE9BA39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Time Tracker</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>We made changes to our design and switched which type of microcontroller would be sending and receiving data from the football</t>
+  </si>
+  <si>
+    <t>I first spent sometime researching the various microchips we could possibly use. We decided it would either be a DW3000 or a RFID chip so I did some research on the DW3000 since that is the idea we are going with for now. Then I spent time finding the pin layouts for the two chip componts that will be in the football the DW3000 and the nRF52 and did the draft schmatic and told how we would connect them for SPI use.</t>
   </si>
 </sst>
 </file>
@@ -469,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23512295-C012-4880-8873-8251211C1C86}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,8 +558,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F5" s="4"/>
+    <row r="5" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>45571</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F6" s="4"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\UF_Work\CompDesign\Project\Code\GatorBall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5953E1-0DE3-4C4C-8A54-E57862DDD3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F965339-BA3A-442E-871D-608218DA7E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{15C62A7B-E50B-44CD-A99E-500E8CE9BA39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Time Tracker</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>I first spent sometime researching the various microchips we could possibly use. We decided it would either be a DW3000 or a RFID chip so I did some research on the DW3000 since that is the idea we are going with for now. Then I spent time finding the pin layouts for the two chip componts that will be in the football the DW3000 and the nRF52 and did the draft schmatic and told how we would connect them for SPI use.</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Meeting about design draft</t>
+  </si>
+  <si>
+    <t>We discussed each others progress on the parts of the design draft and gave each other feedback about the parts we have done</t>
   </si>
 </sst>
 </file>
@@ -473,7 +482,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,8 +584,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F6" s="4"/>
+    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>45572</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F7" s="4"/>
